--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918796.994583204</v>
+        <v>3916251.808509919</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.8132475974193</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.25266187003822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>222.9865638201292</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.7806877295488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>80.34251881621513</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1184,16 +1184,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>111.4597667986326</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.74208805831729</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>142.4361410009233</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>4.444394634329537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>275.8584009063783</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877865</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.32649042089646</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>127.6065435523126</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>61.66004604094911</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.17049831699767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F43" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5702346036273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.4798308023552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>688.4798308023552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>688.4798308023552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>540.5667372199621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.4798308023552</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.069293481283</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.300638211168</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.300638211168</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>2697.149091018222</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>2697.149091018222</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>2594.34031553383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>2373.5477363903</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.685703078436</v>
+        <v>1002.011105850106</v>
       </c>
       <c r="C8" t="n">
-        <v>1341.723186138024</v>
+        <v>633.0485889096944</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>274.7828903029439</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
         <v>186.6833301434222</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>236.3052261842097</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>318.8683807588021</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>871.6816390050013</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N8" t="n">
-        <v>2024.91527597564</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
         <v>2232.849924657333</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2428.348430486129</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2097.285543142558</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2097.285543142558</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.285543142558</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="Y8" t="n">
-        <v>2097.285543142558</v>
+        <v>1388.610945914228</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>514.004752557214</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>814.0274173732905</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>645.0912344453836</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9745950330479</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>347.0615014506548</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1042.016968271308</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1042.016968271308</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1042.016968271308</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1042.016968271308</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V10" t="n">
-        <v>1042.016968271308</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W10" t="n">
-        <v>1042.016968271308</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>814.0274173732905</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>814.0274173732905</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,43 +5036,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>926.7250219692613</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>542.9134462654475</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,40 +5738,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,19 +6209,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2392.08784073087</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.454656510065</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>928.4651056120481</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.672526468518</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,19 +6540,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
         <v>235.5284942057738</v>
@@ -7087,10 +7087,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2384.680208791423</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2165.078743814364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925226</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,13 +7731,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>162.7555498691535</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>38.14709430781187</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,19 +8535,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>257.8023768260592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>285.1863782336312</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>212.9610556929587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10.32607348286587</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.04875628922523</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.00892946589971</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>119.3662399606955</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>44.83521572366092</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798532</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798532</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977554</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682772</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682797</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682804</v>
+        <v>5677.536566682727</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682727</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.6471233108</v>
+        <v>-82233.64712331092</v>
       </c>
       <c r="C6" t="n">
         <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974384</v>
+        <v>351930.4259974387</v>
       </c>
       <c r="E6" t="n">
-        <v>-90884.82307364063</v>
+        <v>-90919.56099907613</v>
       </c>
       <c r="F6" t="n">
-        <v>680167.8683071662</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="G6" t="n">
-        <v>680167.8683071664</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="H6" t="n">
-        <v>680167.8683071662</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="I6" t="n">
-        <v>680167.8683071659</v>
+        <v>680133.1303817299</v>
       </c>
       <c r="J6" t="n">
-        <v>503744.6491145731</v>
+        <v>503709.9111891378</v>
       </c>
       <c r="K6" t="n">
-        <v>680167.8683071662</v>
+        <v>680133.1303817299</v>
       </c>
       <c r="L6" t="n">
-        <v>680167.8683071663</v>
+        <v>680133.1303817302</v>
       </c>
       <c r="M6" t="n">
-        <v>555959.3575991074</v>
+        <v>555924.6196736718</v>
       </c>
       <c r="N6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817302</v>
       </c>
       <c r="O6" t="n">
-        <v>680167.8683071655</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="P6" t="n">
-        <v>680167.8683071657</v>
+        <v>680133.1303817304</v>
       </c>
     </row>
   </sheetData>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,16 +26987,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.9205940660613</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>179.3319914820566</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>104.7656946500057</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594883</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>301.5878512560466</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>139.695019423668</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>117.431093609474</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>143.8245136571737</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.029269365552</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068259</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>518.0009690113193</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>618.3341264639753</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,22 +34211,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.460582998417</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,7 +34235,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34451,16 +34451,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>184.2042872362074</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>210.034998668377</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35255,19 +35255,19 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>396.4181323974672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>485.8497536403632</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.4748895856778</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324669</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>128.5512458942248</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>386.659256927986</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
-        <v>476.200092541957</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>161.9999866016179</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150837</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
